--- a/doc/NYU_building.xlsx
+++ b/doc/NYU_building.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="585" windowWidth="27495" windowHeight="12975"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="292">
   <si>
     <t>Bldg Name</t>
   </si>
@@ -212,7 +216,7 @@
     <t>Card Center (ID Card)</t>
   </si>
   <si>
-    <t>Silk Building </t>
+    <t>Silk Building</t>
   </si>
   <si>
     <t>14 East Fourth Street</t>
@@ -233,9 +237,6 @@
     <t>Tisch Hall</t>
   </si>
   <si>
-    <t>40 West Fourth Street</t>
-  </si>
-  <si>
     <t>40.7293, -73.9961</t>
   </si>
   <si>
@@ -249,9 +250,6 @@
   </si>
   <si>
     <t>44 West Fourth Street</t>
-  </si>
-  <si>
-    <t>40.7294, -73.9962</t>
   </si>
   <si>
     <t>Shimkin Hall</t>
@@ -881,39 +879,61 @@
   </si>
   <si>
     <t>40.7289, -73.9951</t>
+  </si>
+  <si>
+    <t>40.728877,-73.996288</t>
+  </si>
+  <si>
+    <t>40 W 4th Street</t>
+  </si>
+  <si>
+    <t>Jacobs Academic Building</t>
+  </si>
+  <si>
+    <t>40.694074,-73.986932</t>
+  </si>
+  <si>
+    <t>Econ. NYU</t>
+  </si>
+  <si>
+    <t>Dept. of Linguistics</t>
+  </si>
+  <si>
+    <t>6 Metrotech Center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -921,9 +941,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -936,1379 +954,1685 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1"/>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="A2" ySplit="1.0" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="9.14" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="38.0"/>
-    <col min="2" customWidth="1" max="2" width="33.86"/>
-    <col min="3" customWidth="1" max="3" width="17.43"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="2" r="B2">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="2" r="C2">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="2" r="B3">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="2" r="C3">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="2" r="B4">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="2" r="C4">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="2" r="B5">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="2" r="C5">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="2" r="B6">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="2" r="C6">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="2" r="B7">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="2" r="C7">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="2" r="B8">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="2" r="C8">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="2" r="B9">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="2" r="C9">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="2" r="B10">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="2" r="C10">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="2" r="B11">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="2" r="C11">
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12">
-      <c t="s" s="2" r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="2" r="B12">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="2" r="C12">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
-      <c t="s" s="2" r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="2" r="B13">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="2" r="C13">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14">
-      <c t="s" s="2" r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="2" r="B14">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="2" r="C14">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c t="s" s="2" r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="2" r="B15">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="2" r="C15">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16">
-      <c t="s" s="2" r="A16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="2" r="B16">
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="2" r="C16">
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17">
-      <c t="s" s="2" r="A17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
-      <c t="s" s="2" r="B17">
+      <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="2" r="C17">
+      <c r="C17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18">
-      <c t="s" s="2" r="A18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="2" r="B18">
+      <c r="B18" s="2" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="2" r="C18">
+      <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19">
-      <c t="s" s="2" r="A19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="2" r="B19">
+      <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="2" r="C19">
+      <c r="C19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20">
-      <c t="s" s="2" r="A20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="2" r="B20">
+      <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="2" r="C20">
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21">
-      <c t="s" s="2" r="A21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="2" r="B21">
+      <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="2" r="C21">
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22">
-      <c t="s" s="2" r="A22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="2" r="B22">
+      <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="2" r="C22">
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23">
-      <c t="s" s="2" r="A23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="2" r="B23">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="2" r="C23">
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24">
-      <c t="s" s="2" r="A24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="2" r="B24">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="2" r="C24">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25">
-      <c t="s" s="2" r="A25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="2" r="B25">
+      <c r="B25" s="2" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="2" r="C25">
+      <c r="C25" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26">
-      <c t="s" s="2" r="A26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="2" r="B26">
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="2" r="C26">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27">
-      <c t="s" s="2" r="A27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
-      <c t="s" s="2" r="B27">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="2" r="C27">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28">
-      <c t="s" s="2" r="A28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="2" r="B28">
+      <c r="B28" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="2" r="C28">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29">
-      <c t="s" s="2" r="A29">
+      <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c t="s" s="2" r="C29">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30">
-      <c t="s" s="2" r="A30">
+      <c r="B30" s="2" t="s">
         <v>76</v>
       </c>
-      <c t="s" s="2" r="B30">
+      <c r="C30" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>77</v>
       </c>
-      <c t="s" s="2" r="C30">
+      <c r="B31" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31">
-      <c t="s" s="2" r="A31">
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c t="s" s="2" r="B31">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
-      <c t="s" s="2" r="C31">
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32">
-      <c t="s" s="2" r="A32">
+      <c r="C33" s="2" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="2" r="B32">
-        <v>80</v>
-      </c>
-      <c t="s" s="2" r="C32">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33">
-      <c t="s" s="2" r="A33">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>83</v>
       </c>
-      <c t="s" s="2" r="C33">
+      <c r="B34" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34">
-      <c t="s" s="2" r="A34">
+      <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
-      <c t="s" s="2" r="B34">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
-      <c t="s" s="2" r="C34">
+      <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35">
-      <c t="s" s="2" r="A35">
+      <c r="C35" s="2" t="s">
         <v>88</v>
       </c>
-      <c t="s" s="2" r="B35">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
-      <c t="s" s="2" r="C35">
+      <c r="B36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="36">
-      <c t="s" s="2" r="A36">
+      <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
-      <c t="s" s="2" r="B36">
-        <v>89</v>
-      </c>
-      <c t="s" s="2" r="C36">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37">
-      <c t="s" s="2" r="A37">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>92</v>
       </c>
-      <c t="s" s="2" r="B37">
-        <v>92</v>
-      </c>
-      <c t="s" s="2" r="C37">
+      <c r="B38" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="38">
-      <c t="s" s="2" r="A38">
+      <c r="C38" s="2" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="2" r="B38">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
-      <c t="s" s="2" r="C38">
+      <c r="B39" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39">
-      <c t="s" s="2" r="A39">
+      <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="2" r="B39">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>98</v>
       </c>
-      <c t="s" s="2" r="C39">
+      <c r="B40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="40">
-      <c t="s" s="2" r="A40">
+      <c r="B41" s="2" t="s">
         <v>100</v>
       </c>
-      <c t="s" s="2" r="B40">
-        <v>98</v>
-      </c>
-      <c t="s" s="2" r="C40">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41">
-      <c t="s" s="2" r="A41">
+      <c r="C41" s="2" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="2" r="B41">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
-      <c t="s" s="2" r="C41">
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42">
-      <c t="s" s="2" r="A42">
+      <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
-      <c t="s" s="2" r="B42">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="2" r="C42">
+      <c r="B43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43">
-      <c t="s" s="2" r="A43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
-      <c t="s" s="2" r="B43">
-        <v>107</v>
-      </c>
-      <c t="s" s="2" r="C43">
+      <c r="B44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="44">
-      <c t="s" s="2" r="A44">
+      <c r="B45" s="2" t="s">
         <v>109</v>
       </c>
-      <c t="s" s="2" r="B44">
-        <v>107</v>
-      </c>
-      <c t="s" s="2" r="C44">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45">
-      <c t="s" s="2" r="A45">
+      <c r="C45" s="2" t="s">
         <v>110</v>
       </c>
-      <c t="s" s="2" r="B45">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>111</v>
       </c>
-      <c t="s" s="2" r="C45">
+      <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46">
-      <c t="s" s="2" r="A46">
+      <c r="C46" s="2" t="s">
         <v>113</v>
       </c>
-      <c t="s" s="2" r="B46">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>114</v>
       </c>
-      <c t="s" s="2" r="C46">
+      <c r="B47" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="47">
-      <c t="s" s="2" r="A47">
+      <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
-      <c t="s" s="2" r="B47">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>117</v>
       </c>
-      <c t="s" s="2" r="C47">
+      <c r="B48" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48">
-      <c t="s" s="2" r="A48">
+      <c r="C48" s="2" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="2" r="B48">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="2" r="C48">
+      <c r="B49" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="49">
-      <c t="s" s="2" r="A49">
+      <c r="C49" s="2" t="s">
         <v>122</v>
       </c>
-      <c t="s" s="2" r="B49">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="2" r="C49">
+      <c r="B50" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="50">
-      <c t="s" s="2" r="A50">
+      <c r="C50" s="2" t="s">
         <v>125</v>
       </c>
-      <c t="s" s="2" r="B50">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="2" r="C50">
+      <c r="B51" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51">
-      <c t="s" s="2" r="A51">
+      <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
-      <c t="s" s="2" r="B51">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>129</v>
       </c>
-      <c t="s" s="2" r="C51">
+      <c r="B52" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52">
-      <c t="s" s="2" r="A52">
+      <c r="C52" s="2" t="s">
         <v>131</v>
       </c>
-      <c t="s" s="2" r="B52">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>132</v>
       </c>
-      <c t="s" s="2" r="C52">
+      <c r="B53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53">
-      <c t="s" s="2" r="A53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
-      <c t="s" s="2" r="B53">
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
-      <c t="s" s="2" r="C53">
+      <c r="C54" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="54">
-      <c t="s" s="2" r="A54">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="2" r="B54">
+      <c r="B55" s="2" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="2" r="C54">
+      <c r="C55" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55">
-      <c t="s" s="2" r="A55">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>138</v>
       </c>
-      <c t="s" s="2" r="B55">
-        <v>138</v>
-      </c>
-      <c t="s" s="2" r="C55">
+      <c r="B56" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56">
-      <c t="s" s="2" r="A56">
+      <c r="C56" s="2" t="s">
         <v>140</v>
       </c>
-      <c t="s" s="2" r="B56">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="2" r="C56">
+      <c r="B57" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57">
-      <c t="s" s="2" r="A57">
+      <c r="C57" s="2" t="s">
         <v>143</v>
       </c>
-      <c t="s" s="2" r="B57">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>144</v>
       </c>
-      <c t="s" s="2" r="C57">
+      <c r="B58" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58">
-      <c t="s" s="2" r="A58">
+      <c r="C58" s="2" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="2" r="B58">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>147</v>
       </c>
-      <c t="s" s="2" r="C58">
+      <c r="B59" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59">
-      <c t="s" s="2" r="A59">
+      <c r="C59" s="2" t="s">
         <v>149</v>
       </c>
-      <c t="s" s="2" r="B59">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>150</v>
       </c>
-      <c t="s" s="2" r="C59">
+      <c r="B60" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="60">
-      <c t="s" s="2" r="A60">
+      <c r="C60" s="2" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="2" r="B60">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="2" r="C60">
+      <c r="B61" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="61">
-      <c t="s" s="2" r="A61">
+      <c r="C61" s="2" t="s">
         <v>155</v>
       </c>
-      <c t="s" s="2" r="B61">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
-      <c t="s" s="2" r="C61">
+      <c r="B62" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="62">
-      <c t="s" s="2" r="A62">
+      <c r="C62" s="2" t="s">
         <v>158</v>
       </c>
-      <c t="s" s="2" r="B62">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>159</v>
       </c>
-      <c t="s" s="2" r="C62">
+      <c r="B63" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63">
-      <c t="s" s="2" r="A63">
+      <c r="C63" s="2" t="s">
         <v>161</v>
       </c>
-      <c t="s" s="2" r="B63">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>162</v>
       </c>
-      <c t="s" s="2" r="C63">
+      <c r="B64" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="64">
-      <c t="s" s="2" r="A64">
+      <c r="C64" s="2" t="s">
         <v>164</v>
       </c>
-      <c t="s" s="2" r="B64">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>165</v>
       </c>
-      <c t="s" s="2" r="C64">
+      <c r="B65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="65">
-      <c t="s" s="2" r="A65">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>167</v>
       </c>
-      <c t="s" s="2" r="B65">
-        <v>167</v>
-      </c>
-      <c t="s" s="2" r="C65">
+      <c r="B66" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="66">
-      <c t="s" s="2" r="A66">
+      <c r="C66" s="2" t="s">
         <v>169</v>
       </c>
-      <c t="s" s="2" r="B66">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>170</v>
       </c>
-      <c t="s" s="2" r="C66">
+      <c r="B67" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="67">
-      <c t="s" s="2" r="A67">
+      <c r="C67" s="2" t="s">
         <v>172</v>
       </c>
-      <c t="s" s="2" r="B67">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="2" r="C67">
+      <c r="B68" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68">
-      <c t="s" s="2" r="A68">
+      <c r="C68" s="2" t="s">
         <v>175</v>
       </c>
-      <c t="s" s="2" r="B68">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>176</v>
       </c>
-      <c t="s" s="2" r="C68">
+      <c r="B69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69">
-      <c t="s" s="2" r="A69">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
-      <c t="s" s="2" r="B69">
-        <v>178</v>
-      </c>
-      <c t="s" s="2" r="C69">
+      <c r="B70" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="70">
-      <c t="s" s="2" r="A70">
+      <c r="C70" s="2" t="s">
         <v>180</v>
       </c>
-      <c t="s" s="2" r="B70">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>181</v>
       </c>
-      <c t="s" s="2" r="C70">
+      <c r="B71" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="71">
-      <c t="s" s="2" r="A71">
+      <c r="C71" s="2" t="s">
         <v>183</v>
       </c>
-      <c t="s" s="2" r="B71">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>184</v>
       </c>
-      <c t="s" s="2" r="C71">
+      <c r="B72" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="72">
-      <c t="s" s="2" r="A72">
+      <c r="C72" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>186</v>
       </c>
-      <c t="s" s="2" r="B72">
+      <c r="B73" s="2" t="s">
         <v>187</v>
       </c>
-      <c t="s" s="2" r="C72">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73">
-      <c t="s" s="2" r="A73">
+      <c r="C73" s="2" t="s">
         <v>188</v>
       </c>
-      <c t="s" s="2" r="B73">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>189</v>
       </c>
-      <c t="s" s="2" r="C73">
+      <c r="B74" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="74">
-      <c t="s" s="2" r="A74">
+      <c r="C74" s="2" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="2" r="B74">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="2" r="C74">
+      <c r="B75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="75">
-      <c t="s" s="2" r="A75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>194</v>
       </c>
-      <c t="s" s="2" r="B75">
-        <v>194</v>
-      </c>
-      <c t="s" s="2" r="C75">
+      <c r="B76" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="76">
-      <c t="s" s="2" r="A76">
+      <c r="C76" s="2" t="s">
         <v>196</v>
       </c>
-      <c t="s" s="2" r="B76">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>197</v>
       </c>
-      <c t="s" s="2" r="C76">
+      <c r="B77" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="77">
-      <c t="s" s="2" r="A77">
+      <c r="C77" s="2" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="2" r="B77">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>200</v>
       </c>
-      <c t="s" s="2" r="C77">
+      <c r="B78" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="78">
-      <c t="s" s="2" r="A78">
+      <c r="C78" s="2" t="s">
         <v>202</v>
       </c>
-      <c t="s" s="2" r="B78">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>203</v>
       </c>
-      <c t="s" s="2" r="C78">
+      <c r="B79" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="79">
-      <c t="s" s="2" r="A79">
+      <c r="C79" s="2" t="s">
         <v>205</v>
       </c>
-      <c t="s" s="2" r="B79">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>206</v>
       </c>
-      <c t="s" s="2" r="C79">
+      <c r="B80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="80">
-      <c t="s" s="2" r="A80">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>208</v>
       </c>
-      <c t="s" s="2" r="B80">
-        <v>208</v>
-      </c>
-      <c t="s" s="2" r="C80">
+      <c r="B81" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="81">
-      <c t="s" s="2" r="A81">
+      <c r="C81" s="2" t="s">
         <v>210</v>
       </c>
-      <c t="s" s="2" r="B81">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>211</v>
       </c>
-      <c t="s" s="2" r="C81">
+      <c r="B82" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="82">
-      <c t="s" s="2" r="A82">
+      <c r="B83" s="2" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="2" r="B82">
-        <v>211</v>
-      </c>
-      <c t="s" s="2" r="C82">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83">
-      <c t="s" s="2" r="A83">
+      <c r="C83" s="2" t="s">
         <v>214</v>
       </c>
-      <c t="s" s="2" r="B83">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
-      <c t="s" s="2" r="C83">
+      <c r="B84" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="84">
-      <c t="s" s="2" r="A84">
+      <c r="C84" s="2" t="s">
         <v>217</v>
       </c>
-      <c t="s" s="2" r="B84">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>218</v>
       </c>
-      <c t="s" s="2" r="C84">
+      <c r="B85" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="85">
-      <c t="s" s="2" r="A85">
+      <c r="C85" s="2" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="2" r="B85">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>221</v>
       </c>
-      <c t="s" s="2" r="C85">
+      <c r="B86" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="86">
-      <c t="s" s="2" r="A86">
+      <c r="C86" s="2" t="s">
         <v>223</v>
       </c>
-      <c t="s" s="2" r="B86">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>224</v>
       </c>
-      <c t="s" s="2" r="C86">
+      <c r="B87" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="87">
-      <c t="s" s="2" r="A87">
+      <c r="C87" s="2" t="s">
         <v>226</v>
       </c>
-      <c t="s" s="2" r="B87">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>227</v>
       </c>
-      <c t="s" s="2" r="C87">
+      <c r="B88" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="88">
-      <c t="s" s="2" r="A88">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="2" r="B88">
+      <c r="B89" s="2" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="2" r="C88">
+      <c r="C89" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89">
-      <c t="s" s="2" r="A89">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>231</v>
       </c>
-      <c t="s" s="2" r="B89">
+      <c r="B90" s="2" t="s">
         <v>231</v>
       </c>
-      <c t="s" s="2" r="C89">
+      <c r="C90" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90">
-      <c t="s" s="2" r="A90">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>233</v>
       </c>
-      <c t="s" s="2" r="B90">
+      <c r="B91" s="2" t="s">
         <v>233</v>
       </c>
-      <c t="s" s="2" r="C90">
+      <c r="C91" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="91">
-      <c t="s" s="2" r="A91">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>235</v>
       </c>
-      <c t="s" s="2" r="B91">
+      <c r="B92" s="2" t="s">
         <v>235</v>
       </c>
-      <c t="s" s="2" r="C91">
+      <c r="C92" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="92">
-      <c t="s" s="2" r="A92">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>237</v>
       </c>
-      <c t="s" s="2" r="B92">
-        <v>237</v>
-      </c>
-      <c t="s" s="2" r="C92">
+      <c r="B93" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="93">
-      <c t="s" s="2" r="A93">
+      <c r="C93" s="2" t="s">
         <v>239</v>
       </c>
-      <c t="s" s="2" r="B93">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>240</v>
       </c>
-      <c t="s" s="2" r="C93">
+      <c r="B94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="94">
-      <c t="s" s="2" r="A94">
+      <c r="B95" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>242</v>
       </c>
-      <c t="s" s="2" r="B94">
-        <v>240</v>
-      </c>
-      <c t="s" s="2" r="C94">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="95">
-      <c t="s" s="2" r="A95">
+      <c r="B96" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>243</v>
       </c>
-      <c t="s" s="2" r="B95">
-        <v>240</v>
-      </c>
-      <c t="s" s="2" r="C95">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="96">
-      <c t="s" s="2" r="A96">
+      <c r="B97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>244</v>
       </c>
-      <c t="s" s="2" r="B96">
-        <v>240</v>
-      </c>
-      <c t="s" s="2" r="C96">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97">
-      <c t="s" s="2" r="A97">
+      <c r="B98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>245</v>
       </c>
-      <c t="s" s="2" r="B97">
-        <v>240</v>
-      </c>
-      <c t="s" s="2" r="C97">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98">
-      <c t="s" s="2" r="A98">
+      <c r="B99" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>246</v>
       </c>
-      <c t="s" s="2" r="B98">
-        <v>240</v>
-      </c>
-      <c t="s" s="2" r="C98">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99">
-      <c t="s" s="2" r="A99">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="2" r="B99">
+      <c r="B100" s="2" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="2" r="C99">
+      <c r="C100" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="100">
-      <c t="s" s="2" r="A100">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>249</v>
       </c>
-      <c t="s" s="2" r="B100">
+      <c r="B101" s="2" t="s">
         <v>249</v>
       </c>
-      <c t="s" s="2" r="C100">
+      <c r="C101" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="101">
-      <c t="s" s="2" r="A101">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>251</v>
       </c>
-      <c t="s" s="2" r="B101">
-        <v>251</v>
-      </c>
-      <c t="s" s="2" r="C101">
+      <c r="B102" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="102">
-      <c t="s" s="2" r="A102">
+      <c r="C102" s="2" t="s">
         <v>253</v>
       </c>
-      <c t="s" s="2" r="B102">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>254</v>
       </c>
-      <c t="s" s="2" r="C102">
+      <c r="B103" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="103">
-      <c t="s" s="2" r="A103">
+      <c r="C103" s="2" t="s">
         <v>256</v>
       </c>
-      <c t="s" s="2" r="B103">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>257</v>
       </c>
-      <c t="s" s="2" r="C103">
+      <c r="B104" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="104">
-      <c t="s" s="2" r="A104">
+      <c r="B105" s="2" t="s">
         <v>259</v>
       </c>
-      <c t="s" s="2" r="B104">
-        <v>257</v>
-      </c>
-      <c t="s" s="2" r="C104">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="105">
-      <c t="s" s="2" r="A105">
+      <c r="C105" s="2" t="s">
         <v>260</v>
       </c>
-      <c t="s" s="2" r="B105">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>261</v>
       </c>
-      <c t="s" s="2" r="C105">
+      <c r="B106" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="106">
-      <c t="s" s="2" r="A106">
+      <c r="C106" s="2" t="s">
         <v>263</v>
       </c>
-      <c t="s" s="2" r="B106">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="2" r="C106">
+      <c r="B107" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="107">
-      <c t="s" s="2" r="A107">
+      <c r="C107" s="2" t="s">
         <v>266</v>
       </c>
-      <c t="s" s="2" r="B107">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>267</v>
       </c>
-      <c t="s" s="2" r="C107">
+      <c r="B108" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="108">
-      <c t="s" s="2" r="A108">
+      <c r="C108" s="2" t="s">
         <v>269</v>
       </c>
-      <c t="s" s="2" r="B108">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>270</v>
       </c>
-      <c t="s" s="2" r="C108">
+      <c r="B109" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="109">
-      <c t="s" s="2" r="A109">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>272</v>
       </c>
-      <c t="s" s="2" r="B109">
+      <c r="B110" s="2" t="s">
         <v>272</v>
       </c>
-      <c t="s" s="2" r="C109">
+      <c r="C110" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="110">
-      <c t="s" s="2" r="A110">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>274</v>
       </c>
-      <c t="s" s="2" r="B110">
+      <c r="B111" s="2" t="s">
         <v>274</v>
       </c>
-      <c t="s" s="2" r="C110">
+      <c r="C111" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="111">
-      <c t="s" s="2" r="A111">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>276</v>
       </c>
-      <c t="s" s="2" r="B111">
-        <v>276</v>
-      </c>
-      <c t="s" s="2" r="C111">
+      <c r="B112" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="112">
-      <c t="s" s="2" r="A112">
+      <c r="C112" s="2" t="s">
         <v>278</v>
       </c>
-      <c t="s" s="2" r="B112">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>279</v>
       </c>
-      <c t="s" s="2" r="C112">
+      <c r="B113" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="113">
-      <c t="s" s="2" r="A113">
+      <c r="C114" s="2" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="2" r="B113">
-        <v>281</v>
-      </c>
-      <c t="s" s="2" r="C113">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="114">
-      <c t="s" s="2" r="A114">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="2" r="B114">
+      <c r="B115" s="2" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="2" r="C114">
+      <c r="C115" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="115">
-      <c t="s" s="2" r="A115">
+      <c r="C116" s="2" t="s">
         <v>284</v>
       </c>
-      <c t="s" s="2" r="B115">
-        <v>284</v>
-      </c>
-      <c t="s" s="2" r="C115">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116">
-      <c t="s" s="2" r="A116">
-        <v>285</v>
-      </c>
-      <c t="s" s="2" r="B116">
-        <v>285</v>
-      </c>
-      <c t="s" s="2" r="C116">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="117">
-      <c s="2" r="A117"/>
-      <c s="2" r="B117"/>
-      <c s="2" r="C117"/>
-    </row>
-    <row r="118">
-      <c s="2" r="A118"/>
-      <c s="2" r="B118"/>
-      <c s="2" r="C118"/>
-    </row>
-    <row r="119">
-      <c s="2" r="A119"/>
-      <c s="2" r="B119"/>
-      <c s="2" r="C119"/>
-    </row>
-    <row r="120">
-      <c s="2" r="A120"/>
-      <c s="2" r="B120"/>
-      <c s="2" r="C120"/>
-    </row>
-    <row r="121">
-      <c s="2" r="A121"/>
-      <c s="2" r="B121"/>
-      <c s="2" r="C121"/>
-    </row>
-    <row r="122">
-      <c s="2" r="A122"/>
-      <c s="2" r="B122"/>
-      <c s="2" r="C122"/>
-    </row>
-    <row r="123">
-      <c s="2" r="A123"/>
-      <c s="2" r="B123"/>
-      <c s="2" r="C123"/>
-    </row>
-    <row r="124">
-      <c s="2" r="A124"/>
-      <c s="2" r="B124"/>
-      <c s="2" r="C124"/>
-    </row>
-    <row r="125">
-      <c s="2" r="A125"/>
-      <c s="2" r="B125"/>
-      <c s="2" r="C125"/>
-    </row>
-    <row r="126">
-      <c s="2" r="A126"/>
-      <c s="2" r="B126"/>
-      <c s="2" r="C126"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1">
-    <sortState ref="A1:C1"/>
-  </autoFilter>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="9.14" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="9.14" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>